--- a/data/pca/factorExposure/factorExposure_2013-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-4.829611153397705e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001931159404978241</v>
+      </c>
+      <c r="C2">
+        <v>-0.03315712557608587</v>
+      </c>
+      <c r="D2">
+        <v>0.0008144789662860057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.00193378063411152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005937444998854183</v>
+      </c>
+      <c r="C4">
+        <v>-0.08725665458231828</v>
+      </c>
+      <c r="D4">
+        <v>0.07531481896445499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0009146199072979892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01333702327293477</v>
+      </c>
+      <c r="C6">
+        <v>-0.1122471859848141</v>
+      </c>
+      <c r="D6">
+        <v>0.02902102610163016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001831360331966758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004651358191940698</v>
+      </c>
+      <c r="C7">
+        <v>-0.05667953977579205</v>
+      </c>
+      <c r="D7">
+        <v>0.03021583133137865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0001265373878638427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005610578449162528</v>
+      </c>
+      <c r="C8">
+        <v>-0.03821809491617895</v>
+      </c>
+      <c r="D8">
+        <v>0.04050133501139597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003906117043233087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004063631871838515</v>
+      </c>
+      <c r="C9">
+        <v>-0.07265473885125028</v>
+      </c>
+      <c r="D9">
+        <v>0.06958281750615984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004257628870987153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005196755569283858</v>
+      </c>
+      <c r="C10">
+        <v>-0.06022395829379433</v>
+      </c>
+      <c r="D10">
+        <v>-0.2037022100538594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003247947670394225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005225981276120226</v>
+      </c>
+      <c r="C11">
+        <v>-0.08122370916151377</v>
+      </c>
+      <c r="D11">
+        <v>0.06047097675161087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>9.505999852090729e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003863483761621338</v>
+      </c>
+      <c r="C12">
+        <v>-0.06465654128361456</v>
+      </c>
+      <c r="D12">
+        <v>0.04610110463037442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003452725264833894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008474762652610811</v>
+      </c>
+      <c r="C13">
+        <v>-0.06755452672121559</v>
+      </c>
+      <c r="D13">
+        <v>0.06462668532616424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001516129492587111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001384336530415305</v>
+      </c>
+      <c r="C14">
+        <v>-0.04665179306436752</v>
+      </c>
+      <c r="D14">
+        <v>0.008608931523369934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009916881347493756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005905224385909594</v>
+      </c>
+      <c r="C15">
+        <v>-0.04279523370326042</v>
+      </c>
+      <c r="D15">
+        <v>0.03072985243077675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001447329389125099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004843845039421253</v>
+      </c>
+      <c r="C16">
+        <v>-0.06679185070247907</v>
+      </c>
+      <c r="D16">
+        <v>0.0456440428575129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-5.201164030527389e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008727183755863781</v>
+      </c>
+      <c r="C20">
+        <v>-0.06835098699210465</v>
+      </c>
+      <c r="D20">
+        <v>0.04764858589637857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005275026440213266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009784168553558367</v>
+      </c>
+      <c r="C21">
+        <v>-0.02335040783573104</v>
+      </c>
+      <c r="D21">
+        <v>0.03536628536165252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01692725911154097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007119203346278101</v>
+      </c>
+      <c r="C22">
+        <v>-0.09490419754557092</v>
+      </c>
+      <c r="D22">
+        <v>0.1016673149641984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01725053843657346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006933003006297745</v>
+      </c>
+      <c r="C23">
+        <v>-0.09577855641922686</v>
+      </c>
+      <c r="D23">
+        <v>0.1020313686718098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00197412646233053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004883574587530074</v>
+      </c>
+      <c r="C24">
+        <v>-0.07551157260313447</v>
+      </c>
+      <c r="D24">
+        <v>0.0588618433997366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003904093329614907</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002641244027577724</v>
+      </c>
+      <c r="C25">
+        <v>-0.07894525992991513</v>
+      </c>
+      <c r="D25">
+        <v>0.06362349443620609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00617866851692399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003517390773253076</v>
+      </c>
+      <c r="C26">
+        <v>-0.04301737320542686</v>
+      </c>
+      <c r="D26">
+        <v>0.0257367241571852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005440153410122807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001132300449674567</v>
+      </c>
+      <c r="C28">
+        <v>-0.109126509650381</v>
+      </c>
+      <c r="D28">
+        <v>-0.3188601014662311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001283440713306691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002926116642608203</v>
+      </c>
+      <c r="C29">
+        <v>-0.04965251176965456</v>
+      </c>
+      <c r="D29">
+        <v>0.004175919180970037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003779817049875892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008644390670262216</v>
+      </c>
+      <c r="C30">
+        <v>-0.1446763683813393</v>
+      </c>
+      <c r="D30">
+        <v>0.09754423576455407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>6.090230440141789e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006014577867615421</v>
+      </c>
+      <c r="C31">
+        <v>-0.04575762328006316</v>
+      </c>
+      <c r="D31">
+        <v>0.03224798866869336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005332940802734326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003833152756015131</v>
+      </c>
+      <c r="C32">
+        <v>-0.0403010208742348</v>
+      </c>
+      <c r="D32">
+        <v>0.02135399598768353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003253643695716147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007811092663345938</v>
+      </c>
+      <c r="C33">
+        <v>-0.08665375448335562</v>
+      </c>
+      <c r="D33">
+        <v>0.07173661072146806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004523865833468236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003659257473630652</v>
+      </c>
+      <c r="C34">
+        <v>-0.05828739075166314</v>
+      </c>
+      <c r="D34">
+        <v>0.04717344587495563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002659752733166273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004653832338150387</v>
+      </c>
+      <c r="C35">
+        <v>-0.03992112456863099</v>
+      </c>
+      <c r="D35">
+        <v>0.01349125563965324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004059666372770043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00138177449415196</v>
+      </c>
+      <c r="C36">
+        <v>-0.02566873182940746</v>
+      </c>
+      <c r="D36">
+        <v>0.02077940916067568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002038884082706245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009425434935728583</v>
+      </c>
+      <c r="C38">
+        <v>-0.03486474062936881</v>
+      </c>
+      <c r="D38">
+        <v>0.02057331338571575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01314473560587023</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001133386405830514</v>
+      </c>
+      <c r="C39">
+        <v>-0.1184923993543822</v>
+      </c>
+      <c r="D39">
+        <v>0.07452272902182898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009675224455943252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001913196894694497</v>
+      </c>
+      <c r="C40">
+        <v>-0.08895389927411186</v>
+      </c>
+      <c r="D40">
+        <v>0.008718413793277403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003978861568954927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007108806475071628</v>
+      </c>
+      <c r="C41">
+        <v>-0.03782183373880781</v>
+      </c>
+      <c r="D41">
+        <v>0.035892241854186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003242250253901604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003412573054452179</v>
+      </c>
+      <c r="C43">
+        <v>-0.05119475084409211</v>
+      </c>
+      <c r="D43">
+        <v>0.02495556228869791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00294850225903364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003282645708262481</v>
+      </c>
+      <c r="C44">
+        <v>-0.1150350928358903</v>
+      </c>
+      <c r="D44">
+        <v>0.07050417364034743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001712115754687458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002238263483252866</v>
+      </c>
+      <c r="C46">
+        <v>-0.03618712736550846</v>
+      </c>
+      <c r="D46">
+        <v>0.02667829053375748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.000925908409338719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00262171544157929</v>
+      </c>
+      <c r="C47">
+        <v>-0.03800451280357518</v>
+      </c>
+      <c r="D47">
+        <v>0.02465179604786607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003146308747254827</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006304723388856711</v>
+      </c>
+      <c r="C48">
+        <v>-0.02977373143090334</v>
+      </c>
+      <c r="D48">
+        <v>0.03167607145280803</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01434347556003636</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01442510329196497</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828448638081931</v>
+      </c>
+      <c r="D49">
+        <v>0.01020450104886612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001326866969074428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003432230541387347</v>
+      </c>
+      <c r="C50">
+        <v>-0.04467867436120213</v>
+      </c>
+      <c r="D50">
+        <v>0.0347077516388821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001206622276768987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00422525933614882</v>
+      </c>
+      <c r="C51">
+        <v>-0.02505445392746005</v>
+      </c>
+      <c r="D51">
+        <v>0.02283851115806871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0005346732033028296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.01988668166684465</v>
+      </c>
+      <c r="C53">
+        <v>-0.1686449765818268</v>
+      </c>
+      <c r="D53">
+        <v>0.03950220601648145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0009737471606510598</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008571916736095954</v>
+      </c>
+      <c r="C54">
+        <v>-0.05700920643711663</v>
+      </c>
+      <c r="D54">
+        <v>0.04200528399313719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003956185050773159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009053357758953282</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094051952275029</v>
+      </c>
+      <c r="D55">
+        <v>0.04524481919300494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003109628977143028</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01934287917221255</v>
+      </c>
+      <c r="C56">
+        <v>-0.1756247322602619</v>
+      </c>
+      <c r="D56">
+        <v>0.03885090791965125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007534718131867895</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01913559324873131</v>
+      </c>
+      <c r="C58">
+        <v>-0.1087231495065812</v>
+      </c>
+      <c r="D58">
+        <v>0.05258440601514312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007086312822270409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008680360915181873</v>
+      </c>
+      <c r="C59">
+        <v>-0.1575104856930554</v>
+      </c>
+      <c r="D59">
+        <v>-0.3032975938536726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004522001686639618</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02291213042706859</v>
+      </c>
+      <c r="C60">
+        <v>-0.2229761694980612</v>
+      </c>
+      <c r="D60">
+        <v>0.02158187478835243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01463295689544564</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002164617649504232</v>
+      </c>
+      <c r="C61">
+        <v>-0.09649883534667285</v>
+      </c>
+      <c r="D61">
+        <v>0.05835113301971434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1703236395538032</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1438383682320865</v>
+      </c>
+      <c r="C62">
+        <v>-0.08751886169079688</v>
+      </c>
+      <c r="D62">
+        <v>0.0457378888770401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001151287504486278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006169457560171288</v>
+      </c>
+      <c r="C63">
+        <v>-0.05798389016417954</v>
+      </c>
+      <c r="D63">
+        <v>0.02537262203735569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005239366350481987</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01471701503834715</v>
+      </c>
+      <c r="C64">
+        <v>-0.105633285256205</v>
+      </c>
+      <c r="D64">
+        <v>0.05934788318620189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001776087805449569</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01699143737091977</v>
+      </c>
+      <c r="C65">
+        <v>-0.1196345126068395</v>
+      </c>
+      <c r="D65">
+        <v>0.01494402732003388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008427297613767539</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01215394689022429</v>
+      </c>
+      <c r="C66">
+        <v>-0.1605922774732015</v>
+      </c>
+      <c r="D66">
+        <v>0.113980954572873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003453715726144564</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01544874407203796</v>
+      </c>
+      <c r="C67">
+        <v>-0.06540397645373479</v>
+      </c>
+      <c r="D67">
+        <v>0.02937967837038124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006795068374853406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0004632118317738538</v>
+      </c>
+      <c r="C68">
+        <v>-0.08845548882795236</v>
+      </c>
+      <c r="D68">
+        <v>-0.2504578072005359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002915524161014657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005722363768057865</v>
+      </c>
+      <c r="C69">
+        <v>-0.05044932354863611</v>
+      </c>
+      <c r="D69">
+        <v>0.03901308514752617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>4.407173578862833e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.0018183457566193</v>
+      </c>
+      <c r="C70">
+        <v>-0.002462604633693125</v>
+      </c>
+      <c r="D70">
+        <v>0.0007466687018779299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001494690366096775</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005720371350325202</v>
+      </c>
+      <c r="C71">
+        <v>-0.0983445911699159</v>
+      </c>
+      <c r="D71">
+        <v>-0.2959309280250232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005531846383173691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01513034787831978</v>
+      </c>
+      <c r="C72">
+        <v>-0.1499545138142594</v>
+      </c>
+      <c r="D72">
+        <v>0.0206405747218889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01170848440164792</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02872834028816656</v>
+      </c>
+      <c r="C73">
+        <v>-0.2753682238148354</v>
+      </c>
+      <c r="D73">
+        <v>0.04707573416092236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004908647179984706</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001049261894436049</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043447463646471</v>
+      </c>
+      <c r="D74">
+        <v>0.04132674460087244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003700693604500199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01047378925101479</v>
+      </c>
+      <c r="C75">
+        <v>-0.1315878639791339</v>
+      </c>
+      <c r="D75">
+        <v>0.02583617114312018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009342986729892793</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02088642407666329</v>
+      </c>
+      <c r="C76">
+        <v>-0.1503019908831587</v>
+      </c>
+      <c r="D76">
+        <v>0.06564072050669427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0004928363367580121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02387937766761967</v>
+      </c>
+      <c r="C77">
+        <v>-0.133992486990341</v>
+      </c>
+      <c r="D77">
+        <v>0.0567591984239825</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001493311941387621</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01409905646447924</v>
+      </c>
+      <c r="C78">
+        <v>-0.09484945229565384</v>
+      </c>
+      <c r="D78">
+        <v>0.0688122861882336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02446416187685385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03668184853348459</v>
+      </c>
+      <c r="C79">
+        <v>-0.1574842031502015</v>
+      </c>
+      <c r="D79">
+        <v>0.0313392345604705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004756539565589626</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01038235579261322</v>
+      </c>
+      <c r="C80">
+        <v>-0.04251137568583223</v>
+      </c>
+      <c r="D80">
+        <v>0.03035672528789089</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002507319141996994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0144766470007999</v>
+      </c>
+      <c r="C81">
+        <v>-0.1288957894920022</v>
+      </c>
+      <c r="D81">
+        <v>0.04428660434684759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005642371985949863</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0191172599838992</v>
+      </c>
+      <c r="C82">
+        <v>-0.1443301314912908</v>
+      </c>
+      <c r="D82">
+        <v>0.04102314354501841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008431423816601146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009932760289463887</v>
+      </c>
+      <c r="C83">
+        <v>-0.05778161179269162</v>
+      </c>
+      <c r="D83">
+        <v>0.05324890249450816</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01261237315229671</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01147485951867836</v>
+      </c>
+      <c r="C84">
+        <v>-0.03649213687991958</v>
+      </c>
+      <c r="D84">
+        <v>-0.008963774082382777</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01523184884613715</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02762759434309815</v>
+      </c>
+      <c r="C85">
+        <v>-0.1314304991688677</v>
+      </c>
+      <c r="D85">
+        <v>0.0438690425953462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001298938393067777</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005304576191127008</v>
+      </c>
+      <c r="C86">
+        <v>-0.04949389289171749</v>
+      </c>
+      <c r="D86">
+        <v>0.01999995221688305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005694951008536491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01003610173006016</v>
+      </c>
+      <c r="C87">
+        <v>-0.1323972708037411</v>
+      </c>
+      <c r="D87">
+        <v>0.06552739771785676</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01318275085952324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003140373616810038</v>
+      </c>
+      <c r="C88">
+        <v>-0.06759078566049459</v>
+      </c>
+      <c r="D88">
+        <v>0.01211349722605974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01548718441781703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001935338077562191</v>
+      </c>
+      <c r="C89">
+        <v>-0.1454239305304059</v>
+      </c>
+      <c r="D89">
+        <v>-0.350369593719292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003077731162344332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006548440152159238</v>
+      </c>
+      <c r="C90">
+        <v>-0.1222016323608017</v>
+      </c>
+      <c r="D90">
+        <v>-0.3227375801329509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006732841666492794</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.009947228940275195</v>
+      </c>
+      <c r="C91">
+        <v>-0.1033959591685832</v>
+      </c>
+      <c r="D91">
+        <v>0.02230142483602343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008939576285114794</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>9.626527646155055e-05</v>
+      </c>
+      <c r="C92">
+        <v>-0.1352071412697476</v>
+      </c>
+      <c r="D92">
+        <v>-0.3377514110695242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008859882326798736</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00447880673309234</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055487249285849</v>
+      </c>
+      <c r="D93">
+        <v>-0.3169881269952611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003503200709552263</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02192500577862242</v>
+      </c>
+      <c r="C94">
+        <v>-0.1535594353639297</v>
+      </c>
+      <c r="D94">
+        <v>0.04660567572105798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004928504242913676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01578426794688758</v>
+      </c>
+      <c r="C95">
+        <v>-0.126932593529767</v>
+      </c>
+      <c r="D95">
+        <v>0.06073878254691727</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001896710372458663</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03362932031222823</v>
+      </c>
+      <c r="C97">
+        <v>-0.1892220390826988</v>
+      </c>
+      <c r="D97">
+        <v>0.008571495965803796</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004060709524262024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03566371433305082</v>
+      </c>
+      <c r="C98">
+        <v>-0.249216976915843</v>
+      </c>
+      <c r="D98">
+        <v>0.0495978541394756</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9834081168004093</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9828968574773861</v>
+      </c>
+      <c r="C99">
+        <v>0.1101791567925696</v>
+      </c>
+      <c r="D99">
+        <v>-0.02735033932560925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001240144085873297</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002970317894367827</v>
+      </c>
+      <c r="C101">
+        <v>-0.04968283471489451</v>
+      </c>
+      <c r="D101">
+        <v>0.00462599286604178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
